--- a/asobbs/ドキュメント/03_ルーム管理表.xlsx
+++ b/asobbs/ドキュメント/03_ルーム管理表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="109">
   <si>
     <t>掲示板ルーム一覧</t>
     <rPh sb="0" eb="3">
@@ -890,10 +890,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>情報ビジネス科 1年</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>情報ビジネス科 2年</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -905,18 +901,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>経理科 1年A</t>
-  </si>
-  <si>
     <t>経理科 1年B</t>
   </si>
   <si>
-    <t>経理科 2年A</t>
-  </si>
-  <si>
-    <t>経理科 2年B</t>
-  </si>
-  <si>
     <t>経営ビジネス科 1年</t>
   </si>
   <si>
@@ -924,9 +911,6 @@
   </si>
   <si>
     <t>国際ビジネス科 1年</t>
-  </si>
-  <si>
-    <t>国際ビジネス科 2年</t>
   </si>
   <si>
     <t>北原、川野、西野、梶原、瀬崎</t>
@@ -1173,6 +1157,26 @@
     <rPh sb="0" eb="1">
       <t>スミ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報ビジネス科 1年</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経理科 2年A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経理科 2年B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経理科 1年A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国際ビジネス科 2年</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1568,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1588,7 +1592,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1600,7 +1604,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>9</v>
@@ -1614,7 +1618,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B3" s="4">
         <f>ROW()-2</f>
@@ -1627,7 +1631,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
@@ -1639,7 +1643,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B4" s="6">
         <f t="shared" ref="B4:B58" si="0">ROW()-2</f>
@@ -1652,7 +1656,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>22</v>
@@ -1666,7 +1670,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B5" s="6">
         <f t="shared" si="0"/>
@@ -1679,7 +1683,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>23</v>
@@ -1693,7 +1697,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B6" s="6">
         <f t="shared" si="0"/>
@@ -1706,7 +1710,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>24</v>
@@ -1720,7 +1724,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
@@ -1733,7 +1737,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>25</v>
@@ -1747,7 +1751,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
@@ -1760,7 +1764,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>11</v>
@@ -1784,7 +1788,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>11</v>
@@ -1808,7 +1812,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>11</v>
@@ -1822,20 +1826,20 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>46</v>
@@ -1846,6 +1850,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1857,7 +1864,7 @@
         <v>26</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>28</v>
@@ -1881,7 +1888,7 @@
         <v>27</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>29</v>
@@ -1894,6 +1901,9 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1905,7 +1915,7 @@
         <v>26</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>28</v>
@@ -1929,7 +1939,7 @@
         <v>27</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>29</v>
@@ -1953,7 +1963,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6" t="s">
@@ -1963,7 +1973,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B17" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1975,7 +1985,7 @@
         <v>37</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
@@ -1985,7 +1995,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B18" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1997,7 +2007,7 @@
         <v>50</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6" t="s">
@@ -2007,7 +2017,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>103</v>
+      </c>
       <c r="B19" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2019,7 +2032,7 @@
         <v>57</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>11</v>
@@ -2031,7 +2044,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>103</v>
+      </c>
       <c r="B20" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2043,7 +2059,7 @@
         <v>57</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>11</v>
@@ -2055,7 +2071,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>103</v>
+      </c>
       <c r="B21" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2067,7 +2086,7 @@
         <v>57</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>11</v>
@@ -2079,7 +2098,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>103</v>
+      </c>
       <c r="B22" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2091,7 +2113,7 @@
         <v>57</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>11</v>
@@ -2103,7 +2125,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
       <c r="B23" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2115,7 +2140,7 @@
         <v>57</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>11</v>
@@ -2127,7 +2152,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>103</v>
+      </c>
       <c r="B24" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2139,7 +2167,7 @@
         <v>57</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>11</v>
@@ -2151,7 +2179,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>103</v>
+      </c>
       <c r="B25" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2163,7 +2194,7 @@
         <v>57</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>11</v>
@@ -2175,7 +2206,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>103</v>
+      </c>
       <c r="B26" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2187,7 +2221,7 @@
         <v>57</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>11</v>
@@ -2199,7 +2233,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>103</v>
+      </c>
       <c r="B27" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2211,7 +2248,7 @@
         <v>57</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>11</v>
@@ -2223,7 +2260,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>103</v>
+      </c>
       <c r="B28" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2235,7 +2275,7 @@
         <v>57</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>11</v>
@@ -2247,7 +2287,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>103</v>
+      </c>
       <c r="B29" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2259,7 +2302,7 @@
         <v>57</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>11</v>
@@ -2271,7 +2314,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>103</v>
+      </c>
       <c r="B30" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2283,7 +2329,7 @@
         <v>57</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>11</v>
@@ -2295,7 +2341,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>103</v>
+      </c>
       <c r="B31" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2307,7 +2356,7 @@
         <v>57</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>11</v>
@@ -2319,7 +2368,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>103</v>
+      </c>
       <c r="B32" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2331,7 +2383,7 @@
         <v>57</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>11</v>
@@ -2343,7 +2395,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
       <c r="B33" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2355,7 +2410,7 @@
         <v>57</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>11</v>
@@ -2367,7 +2422,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>103</v>
+      </c>
       <c r="B34" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2379,7 +2437,7 @@
         <v>57</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>11</v>
@@ -2391,7 +2449,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>103</v>
+      </c>
       <c r="B35" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2403,7 +2464,7 @@
         <v>57</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>11</v>
@@ -2415,7 +2476,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B36" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2427,7 +2488,7 @@
         <v>57</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>11</v>
@@ -2439,7 +2500,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B37" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2451,103 +2512,109 @@
         <v>57</v>
       </c>
       <c r="E37" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B38" s="5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F37" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B38" s="5">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C38" s="5" t="s">
+      <c r="E38" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B39" s="5">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="5">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="E40" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="5">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B39" s="5">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="C39" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B40" s="5">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B41" s="5">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="E41" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>11</v>
@@ -2559,7 +2626,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>103</v>
+      </c>
       <c r="B42" s="5">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2571,7 +2641,7 @@
         <v>57</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>11</v>
@@ -2583,7 +2653,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B43" s="5">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2595,7 +2665,7 @@
         <v>57</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>11</v>
@@ -2607,19 +2677,22 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>103</v>
+      </c>
       <c r="B44" s="5">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>57</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>11</v>
@@ -2631,19 +2704,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B45" s="5">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>57</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>11</v>
@@ -2655,19 +2728,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B46" s="5">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>57</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>11</v>
@@ -2679,19 +2752,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B47" s="5">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>57</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>11</v>
@@ -2703,19 +2776,22 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>103</v>
+      </c>
       <c r="B48" s="5">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>57</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>11</v>
@@ -2727,19 +2803,22 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>103</v>
+      </c>
       <c r="B49" s="5">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>57</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>11</v>
@@ -2751,19 +2830,22 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>103</v>
+      </c>
       <c r="B50" s="5">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>57</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>11</v>
@@ -2775,19 +2857,22 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>103</v>
+      </c>
       <c r="B51" s="5">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>57</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>11</v>
@@ -2799,19 +2884,22 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>103</v>
+      </c>
       <c r="B52" s="5">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>57</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>11</v>
@@ -2823,19 +2911,22 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>103</v>
+      </c>
       <c r="B53" s="5">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>57</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>11</v>
@@ -2847,7 +2938,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>103</v>
+      </c>
       <c r="B54" s="3">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2859,7 +2953,7 @@
         <v>57</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>11</v>
@@ -2871,19 +2965,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B55" s="3">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>11</v>
@@ -2895,19 +2989,22 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>103</v>
+      </c>
       <c r="B56" s="3">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>11</v>
@@ -2919,19 +3016,22 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>103</v>
+      </c>
       <c r="B57" s="3">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>11</v>
@@ -2943,7 +3043,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B58" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2955,7 +3055,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2964,7 +3064,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2973,7 +3073,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2982,7 +3082,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2991,7 +3091,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -3000,7 +3100,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
